--- a/testcases.xlsx
+++ b/testcases.xlsx
@@ -2,10 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pusgupta\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pusgupta\Desktop\Proj\testscript_generator\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -468,6 +468,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -571,10 +572,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -669,5 +671,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/testcases.xlsx
+++ b/testcases.xlsx
@@ -9,11 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9600" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9600"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="RunTest" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="54">
   <si>
     <t>open 'www.publicissapient.com'</t>
   </si>
@@ -131,6 +134,66 @@
   </si>
   <si>
     <t>click on 'I Agree'</t>
+  </si>
+  <si>
+    <t>Verify</t>
+  </si>
+  <si>
+    <t>User choose the shareholder option</t>
+  </si>
+  <si>
+    <t>click on 'Shareholder'</t>
+  </si>
+  <si>
+    <t>Enter 'Daredevil' in 'customerId.value'</t>
+  </si>
+  <si>
+    <t>Enter 'Punisher' in 'customerPassword.value'</t>
+  </si>
+  <si>
+    <t>click on 'Continue'</t>
+  </si>
+  <si>
+    <t>Register a new user as shareholder</t>
+  </si>
+  <si>
+    <t>Go to the Menu in the MFS site.</t>
+  </si>
+  <si>
+    <t>Click on Tax Centre under Manage Your Account</t>
+  </si>
+  <si>
+    <t>click on 'Menu'</t>
+  </si>
+  <si>
+    <t>Go to Cost-Basis Reporting.</t>
+  </si>
+  <si>
+    <t>Click on 'Manage Your Account'</t>
+  </si>
+  <si>
+    <t>Check the Question and Answers page in Education &amp; Support Resources</t>
+  </si>
+  <si>
+    <t>click on 'Tax Center'</t>
+  </si>
+  <si>
+    <t>Go back to the Home Page</t>
+  </si>
+  <si>
+    <t>click on 'Cost-Basis Reporting'</t>
+  </si>
+  <si>
+    <t>click on 'Education &amp; Support Resources'</t>
+  </si>
+  <si>
+    <t>click on 'Questions and Answers'</t>
+  </si>
+  <si>
+    <t>click on 'Home'</t>
+  </si>
+  <si>
+    <t>Check Q&amp;A page display in Tax Centre and traverse back to Homepage</t>
   </si>
 </sst>
 </file>
@@ -469,10 +532,204 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:C22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="62.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="65.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="42.7109375" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A8" s="2"/>
+      <c r="B8" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B9" s="2"/>
+      <c r="C9" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B10" s="4"/>
+      <c r="C10" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B11" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B12" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C13" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B14" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B16" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B17" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B18" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B19" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C20" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C21" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C22" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet2"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C10" sqref="A2:C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -493,76 +750,160 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" t="s">
-        <v>15</v>
+    <row r="2" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
+      <c r="B4" s="5" t="s">
+        <v>26</v>
+      </c>
       <c r="C4" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>16</v>
-      </c>
+      <c r="A5" s="1"/>
+      <c r="B5" s="2"/>
       <c r="C5" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="4"/>
       <c r="C6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="C7" t="s">
-        <v>4</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>17</v>
+      <c r="A8" s="1"/>
+      <c r="B8" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="C8" t="s">
-        <v>5</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>29</v>
+      </c>
       <c r="C10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C12" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C13" t="s">
-        <v>9</v>
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A1:C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="33.5703125" customWidth="1"/>
+    <col min="2" max="2" width="54.5703125" customWidth="1"/>
+    <col min="3" max="3" width="41.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -570,107 +911,198 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="A2:C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.5703125" customWidth="1"/>
-    <col min="2" max="2" width="70.85546875" customWidth="1"/>
-    <col min="3" max="3" width="61.140625" customWidth="1"/>
+    <col min="1" max="1" width="62.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="65.28515625" customWidth="1"/>
+    <col min="3" max="3" width="42.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" t="s">
+      <c r="A1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" t="s">
-        <v>20</v>
+      <c r="B3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="2"/>
-      <c r="C5" t="s">
-        <v>21</v>
+      <c r="B5" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="4"/>
-      <c r="C6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" t="s">
-        <v>33</v>
+      <c r="B6" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B7" s="1"/>
+      <c r="C7" s="1" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" t="s">
-        <v>32</v>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A24" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="45.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="70.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="61.140625" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C3" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C4" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C6" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C7" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C9" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C10" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C11" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C12" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C13" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/testcases.xlsx
+++ b/testcases.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="59">
   <si>
     <t>open 'www.publicissapient.com'</t>
   </si>
@@ -194,6 +194,21 @@
   </si>
   <si>
     <t>Check Q&amp;A page display in Tax Centre and traverse back to Homepage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify Login </t>
+  </si>
+  <si>
+    <t>click on 'Login'</t>
+  </si>
+  <si>
+    <t>click on 'Login2'</t>
+  </si>
+  <si>
+    <t>enter 'hello'  in 'userid'</t>
+  </si>
+  <si>
+    <t>enter 'pwd' in 'userpassword'</t>
   </si>
 </sst>
 </file>
@@ -532,10 +547,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:C22"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -679,7 +694,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>44</v>
       </c>
@@ -687,7 +702,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>46</v>
       </c>
@@ -695,7 +710,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
         <v>48</v>
       </c>
@@ -703,19 +718,47 @@
         <v>49</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C20" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C21" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C22" s="1" t="s">
         <v>52</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C24" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C25" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C26" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C27" s="1" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/testcases.xlsx
+++ b/testcases.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pusgupta\Desktop\Proj\testscript_generator\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adinuwal\Desktop\GitProject\testscript_generator\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="54">
   <si>
     <t>open 'www.publicissapient.com'</t>
   </si>
@@ -194,21 +194,6 @@
   </si>
   <si>
     <t>Check Q&amp;A page display in Tax Centre and traverse back to Homepage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify Login </t>
-  </si>
-  <si>
-    <t>click on 'Login'</t>
-  </si>
-  <si>
-    <t>click on 'Login2'</t>
-  </si>
-  <si>
-    <t>enter 'hello'  in 'userid'</t>
-  </si>
-  <si>
-    <t>enter 'pwd' in 'userpassword'</t>
   </si>
 </sst>
 </file>
@@ -547,10 +532,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="A23" sqref="A23:C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -694,7 +679,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>44</v>
       </c>
@@ -702,7 +687,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>46</v>
       </c>
@@ -710,7 +695,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
         <v>48</v>
       </c>
@@ -718,47 +703,19 @@
         <v>49</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C20" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C21" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C22" s="1" t="s">
         <v>52</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C24" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C25" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C26" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C27" s="1" t="s">
-        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/testcases.xlsx
+++ b/testcases.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="62">
   <si>
     <t>open 'www.publicissapient.com'</t>
   </si>
@@ -194,6 +194,30 @@
   </si>
   <si>
     <t>Check Q&amp;A page display in Tax Centre and traverse back to Homepage</t>
+  </si>
+  <si>
+    <t>Verify the current url is 'https://www3.financialtrans.com/tf/FANWeb/SubmitCustLoginHostedActionFlow:LoginTrans_setCustomerIdTypeToUID'</t>
+  </si>
+  <si>
+    <t>Verify the url is 'https://www.mfs.com/en-us/investment-professional/iprof-registration.html'</t>
+  </si>
+  <si>
+    <t>Check Get service for math.api</t>
+  </si>
+  <si>
+    <t>Click on 'Continue'</t>
+  </si>
+  <si>
+    <t>Verify the current url is 'https://www.mfs.com/en-us'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> get 'https://api.mathjs.org/v4/?expr=2%2B3*sqrt(4)' with 'no' parameters and verify response is '8'</t>
+  </si>
+  <si>
+    <t>Send the arithmetic expression query and check the return value with expected result</t>
+  </si>
+  <si>
+    <t>Verify registration for Shareholder</t>
   </si>
 </sst>
 </file>
@@ -532,10 +556,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:C27"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -559,7 +583,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>25</v>
@@ -593,129 +617,165 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="C6" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C7" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C8" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B9" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="6" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="6" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="B8" s="5" t="s">
+    <row r="11" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
+      <c r="B11" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C11" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B9" s="2"/>
-      <c r="C9" s="1" t="s">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B12" s="2"/>
+      <c r="C12" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B10" s="4"/>
-      <c r="C10" s="1" t="s">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B13" s="4"/>
+      <c r="C13" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B11" s="5" t="s">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B14" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C14" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B12" s="4" t="s">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B15" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C15" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C13" s="1" t="s">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C16" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B14" s="1" t="s">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B17" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C17" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C18" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B19" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C19" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B16" s="1" t="s">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B20" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C20" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B17" s="1" t="s">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B21" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C21" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B18" s="1" t="s">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B22" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C22" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B19" s="1" t="s">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B23" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C23" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C20" s="1" t="s">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C24" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C21" s="1" t="s">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C25" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C22" s="1" t="s">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C26" s="1" t="s">
         <v>52</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C27" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
